--- a/reports/report_optimized_mobility.xlsx
+++ b/reports/report_optimized_mobility.xlsx
@@ -12008,7 +12008,7 @@
         <v>163155</v>
       </c>
       <c r="G8" t="n">
-        <v>7685368.781329496</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>984658.6323572434</v>
@@ -12153,7 +12153,7 @@
         <v>44895</v>
       </c>
       <c r="G13" t="n">
-        <v>1717724.786180569</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>229686.7876433646</v>
@@ -12240,7 +12240,7 @@
         <v>197100</v>
       </c>
       <c r="G16" t="n">
-        <v>5637202.171007696</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>456284.3315968546</v>
@@ -12692,7 +12692,7 @@
         <v>27375</v>
       </c>
       <c r="G32" t="n">
-        <v>1062693.108312975</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>142006.8596376239</v>
@@ -12779,7 +12779,7 @@
         <v>81030</v>
       </c>
       <c r="G35" t="n">
-        <v>2680195.92479055</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>346125.3741762014</v>
@@ -13318,7 +13318,7 @@
         <v>269917.5</v>
       </c>
       <c r="G54" t="n">
-        <v>11723180.79896657</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>1538029.414112844</v>
@@ -13596,7 +13596,7 @@
         <v>248017.5</v>
       </c>
       <c r="G64" t="n">
-        <v>10349923.09982723</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>1369934.641192273</v>
@@ -13770,7 +13770,7 @@
         <v>38325</v>
       </c>
       <c r="G70" t="n">
-        <v>1345038.875184953</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>178255.2195662699</v>
@@ -13903,7 +13903,7 @@
         <v>125925</v>
       </c>
       <c r="G75" t="n">
-        <v>3856429.201733277</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>455483.5239016509</v>
@@ -13990,7 +13990,7 @@
         <v>68437.5</v>
       </c>
       <c r="G78" t="n">
-        <v>2419310.887257003</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>321205.4464452767</v>
@@ -14164,7 +14164,7 @@
         <v>43800</v>
       </c>
       <c r="G84" t="n">
-        <v>2030972.646617193</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>261544.1142542189</v>
@@ -14338,7 +14338,7 @@
         <v>107310</v>
       </c>
       <c r="G90" t="n">
-        <v>4188491.964875093</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>559499.8717930168</v>
@@ -14715,7 +14715,7 @@
         <v>68437.5</v>
       </c>
       <c r="G103" t="n">
-        <v>3020226.07443786</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>394616.9549147382</v>
@@ -15469,7 +15469,7 @@
         <v>46428</v>
       </c>
       <c r="G129" t="n">
-        <v>2043930.429387239</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>267228.8198264815</v>
@@ -15614,7 +15614,7 @@
         <v>32850</v>
       </c>
       <c r="G134" t="n">
-        <v>1394895.255191816</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>183970.5866305279</v>
@@ -15672,7 +15672,7 @@
         <v>36135</v>
       </c>
       <c r="G136" t="n">
-        <v>1050457.033603151</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>102804.7729855715</v>
@@ -15730,7 +15730,7 @@
         <v>143445</v>
       </c>
       <c r="G138" t="n">
-        <v>6131262.723931788</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>807458.0947470826</v>
@@ -15834,7 +15834,7 @@
         <v>99645</v>
       </c>
       <c r="G142" t="n">
-        <v>4106719.889376249</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>544820.8892563612</v>
@@ -15863,7 +15863,7 @@
         <v>269917.5</v>
       </c>
       <c r="G143" t="n">
-        <v>12164455.37033517</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>1580127.731415819</v>
@@ -57776,7 +57776,7 @@
         <v>3697</v>
       </c>
       <c r="B1" t="n">
-        <v>0.02116488903913643</v>
+        <v>0.01926569142302823</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -57784,7 +57784,7 @@
         <v>3698</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003319071067843982</v>
+        <v>0.001419873451735778</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -57824,7 +57824,7 @@
         <v>3703</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01909197877192591</v>
+        <v>0.01773614780917399</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -57832,7 +57832,7 @@
         <v>3704</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02077107737982247</v>
+        <v>0.01941524641707055</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/reports/report_optimized_mobility.xlsx
+++ b/reports/report_optimized_mobility.xlsx
@@ -11494,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3896430</v>
+        <v>4192170</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11518,7 +11518,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>701758201.1801732</v>
+        <v>826915245.6420901</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11526,7 +11526,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>660264.9679999998</v>
+        <v>662321.2619999995</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11542,7 +11542,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1235611.8975</v>
+        <v>1324722.629999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11550,7 +11550,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>988489.5179999995</v>
+        <v>1059778.104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11566,7 +11566,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>688938</v>
+        <v>690150</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11582,7 +11582,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>825331.2100000002</v>
+        <v>827901.5774999998</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11606,7 +11606,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1037</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11614,7 +11614,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>47661.01822565092</v>
+        <v>47867.12303523032</v>
       </c>
     </row>
   </sheetData>
@@ -11646,7 +11646,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>611074080</v>
+        <v>674039160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11670,7 +11670,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>70052426.62017234</v>
+        <v>70274544.04208615</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11694,7 +11694,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>46483232.92749996</v>
+        <v>49776483.22749995</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11702,7 +11702,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37186586.34199996</v>
+        <v>39821186.58199997</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11718,7 +11718,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26179644</v>
+        <v>26225700</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11758,7 +11758,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>83133</v>
+        <v>91082</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11766,7 +11766,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22365.71899366074</v>
+        <v>21860.07475791044</v>
       </c>
     </row>
   </sheetData>
@@ -11854,22 +11854,22 @@
         <v>58.2</v>
       </c>
       <c r="D3" t="n">
-        <v>8810473.305185093</v>
+        <v>10490800.64558886</v>
       </c>
       <c r="E3" t="n">
-        <v>1818886.694814908</v>
+        <v>1820104.954411143</v>
       </c>
       <c r="F3" t="n">
         <v>31864.5</v>
       </c>
       <c r="G3" t="n">
-        <v>8120057.236579944</v>
+        <v>9483042.012005283</v>
       </c>
       <c r="H3" t="n">
-        <v>397094.1713341071</v>
+        <v>419331.2941914995</v>
       </c>
       <c r="I3" t="n">
-        <v>866441014.434256</v>
+        <v>1030112345.6526</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11912,22 +11912,22 @@
         <v>55.6</v>
       </c>
       <c r="D5" t="n">
-        <v>3350029.109192715</v>
+        <v>3571647.610781251</v>
       </c>
       <c r="E5" t="n">
-        <v>2312578.890807285</v>
+        <v>2507197.189218748</v>
       </c>
       <c r="F5" t="n">
         <v>30441</v>
       </c>
       <c r="G5" t="n">
-        <v>3544022.193034791</v>
+        <v>3722807.381388039</v>
       </c>
       <c r="H5" t="n">
-        <v>284220.8201025378</v>
+        <v>289740.7462904056</v>
       </c>
       <c r="I5" t="n">
-        <v>321790229.4658262</v>
+        <v>343259295.2305314</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11970,22 +11970,22 @@
         <v>208</v>
       </c>
       <c r="D7" t="n">
-        <v>3484992.76279058</v>
+        <v>3641674.569561816</v>
       </c>
       <c r="E7" t="n">
-        <v>671.2372094204184</v>
+        <v>1035.83043818397</v>
       </c>
       <c r="F7" t="n">
         <v>113880</v>
       </c>
       <c r="G7" t="n">
-        <v>13335810.71444994</v>
+        <v>13790054.07573028</v>
       </c>
       <c r="H7" t="n">
-        <v>1065712.321959581</v>
+        <v>1079761.330416795</v>
       </c>
       <c r="I7" t="n">
-        <v>1213137789.101179</v>
+        <v>1267684704.795559</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -12115,22 +12115,22 @@
         <v>68</v>
       </c>
       <c r="D12" t="n">
-        <v>4329064.952286403</v>
+        <v>5343308.432823076</v>
       </c>
       <c r="E12" t="n">
-        <v>563.8477135975845</v>
+        <v>99.56717692501843</v>
       </c>
       <c r="F12" t="n">
         <v>37230</v>
       </c>
       <c r="G12" t="n">
-        <v>5159701.97681829</v>
+        <v>6120874.228711834</v>
       </c>
       <c r="H12" t="n">
-        <v>371776.8072658479</v>
+        <v>396277.0048093324</v>
       </c>
       <c r="I12" t="n">
-        <v>492659274.3480203</v>
+        <v>608079743.3319508</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12173,22 +12173,22 @@
         <v>110</v>
       </c>
       <c r="D14" t="n">
-        <v>4227103.274870713</v>
+        <v>4331993.274870713</v>
       </c>
       <c r="E14" t="n">
-        <v>381.5251292851754</v>
+        <v>189.1251292857341</v>
       </c>
       <c r="F14" t="n">
         <v>60225.00000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>8190252.824261665</v>
+        <v>8351039.064022684</v>
       </c>
       <c r="H14" t="n">
-        <v>597102.5466526579</v>
+        <v>601525.4807681045</v>
       </c>
       <c r="I14" t="n">
-        <v>778176979.4237419</v>
+        <v>797484677.0427895</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12202,22 +12202,22 @@
         <v>185</v>
       </c>
       <c r="D15" t="n">
-        <v>2132226.023519297</v>
+        <v>2446127.097506769</v>
       </c>
       <c r="E15" t="n">
-        <v>29.97648070286959</v>
+        <v>221.7024932298809</v>
       </c>
       <c r="F15" t="n">
         <v>101287.5</v>
       </c>
       <c r="G15" t="n">
-        <v>8373280.645513766</v>
+        <v>9182630.577907788</v>
       </c>
       <c r="H15" t="n">
-        <v>820909.8430880187</v>
+        <v>854181.0294966159</v>
       </c>
       <c r="I15" t="n">
-        <v>660155513.3695641</v>
+        <v>757344699.371343</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12289,22 +12289,22 @@
         <v>260</v>
       </c>
       <c r="D18" t="n">
-        <v>1251030.041683564</v>
+        <v>1399574.376047582</v>
       </c>
       <c r="E18" t="n">
-        <v>233.9583164360374</v>
+        <v>1075.223952418193</v>
       </c>
       <c r="F18" t="n">
         <v>142350</v>
       </c>
       <c r="G18" t="n">
-        <v>8574841.941727877</v>
+        <v>9113240.541377693</v>
       </c>
       <c r="H18" t="n">
-        <v>992384.2257006873</v>
+        <v>1023852.282922837</v>
       </c>
       <c r="I18" t="n">
-        <v>544359603.0030403</v>
+        <v>609012134.0654495</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -12347,22 +12347,22 @@
         <v>200</v>
       </c>
       <c r="D20" t="n">
-        <v>3844470.767477129</v>
+        <v>4667531.276552193</v>
       </c>
       <c r="E20" t="n">
-        <v>1250.832522870973</v>
+        <v>449.5234478050843</v>
       </c>
       <c r="F20" t="n">
         <v>109500</v>
       </c>
       <c r="G20" t="n">
-        <v>13824956.65106234</v>
+        <v>16118998.64313573</v>
       </c>
       <c r="H20" t="n">
-        <v>1055174.243779459</v>
+        <v>1118604.469947396</v>
       </c>
       <c r="I20" t="n">
-        <v>1286809244.861751</v>
+        <v>1562284740.614271</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -12405,22 +12405,22 @@
         <v>208</v>
       </c>
       <c r="D22" t="n">
-        <v>1052880.964490726</v>
+        <v>1532383.444452689</v>
       </c>
       <c r="E22" t="n">
-        <v>479.0355092746031</v>
+        <v>1053.355547311861</v>
       </c>
       <c r="F22" t="n">
         <v>113880</v>
       </c>
       <c r="G22" t="n">
-        <v>6285506.339680679</v>
+        <v>7675580.359366301</v>
       </c>
       <c r="H22" t="n">
-        <v>757122.873960217</v>
+        <v>840159.6797337043</v>
       </c>
       <c r="I22" t="n">
-        <v>366515931.4557799</v>
+        <v>533440220.9974444</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -12463,22 +12463,22 @@
         <v>98</v>
       </c>
       <c r="D24" t="n">
-        <v>3851308.599522157</v>
+        <v>4007990.406293393</v>
       </c>
       <c r="E24" t="n">
-        <v>797.0004778443836</v>
+        <v>1161.593706607819</v>
       </c>
       <c r="F24" t="n">
         <v>53655</v>
       </c>
       <c r="G24" t="n">
-        <v>6783538.826794583</v>
+        <v>6997557.333551668</v>
       </c>
       <c r="H24" t="n">
-        <v>517309.4884501583</v>
+        <v>523526.934751129</v>
       </c>
       <c r="I24" t="n">
-        <v>631654511.0586305</v>
+        <v>657354500.1838671</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -12712,22 +12712,22 @@
         <v>228</v>
       </c>
       <c r="D33" t="n">
-        <v>10419604.20700068</v>
+        <v>11655937.7154124</v>
       </c>
       <c r="E33" t="n">
-        <v>360.5929993251339</v>
+        <v>1246.284587600268</v>
       </c>
       <c r="F33" t="n">
         <v>124830</v>
       </c>
       <c r="G33" t="n">
-        <v>36653222.21488114</v>
+        <v>40581882.15177997</v>
       </c>
       <c r="H33" t="n">
-        <v>1635023.973049739</v>
+        <v>1694165.130758979</v>
       </c>
       <c r="I33" t="n">
-        <v>3975829701.574819</v>
+        <v>4447595060.491426</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -12799,22 +12799,22 @@
         <v>340</v>
       </c>
       <c r="D36" t="n">
-        <v>2738425.432808718</v>
+        <v>3334274.596758654</v>
       </c>
       <c r="E36" t="n">
-        <v>310.5671912825201</v>
+        <v>727.0032413462177</v>
       </c>
       <c r="F36" t="n">
         <v>186150</v>
       </c>
       <c r="G36" t="n">
-        <v>18261253.07682425</v>
+        <v>21084759.934406</v>
       </c>
       <c r="H36" t="n">
-        <v>1622399.681157971</v>
+        <v>1719309.510413788</v>
       </c>
       <c r="I36" t="n">
-        <v>1558199794.271014</v>
+        <v>1897255031.289575</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -12828,22 +12828,22 @@
         <v>158</v>
       </c>
       <c r="D37" t="n">
-        <v>3142170.267005216</v>
+        <v>3819384.489155989</v>
       </c>
       <c r="E37" t="n">
-        <v>34.53299478255212</v>
+        <v>801.1108440095559</v>
       </c>
       <c r="F37" t="n">
         <v>86505</v>
       </c>
       <c r="G37" t="n">
-        <v>9375127.690502571</v>
+        <v>10866429.5315829</v>
       </c>
       <c r="H37" t="n">
-        <v>785060.2241540449</v>
+        <v>831955.5671510969</v>
       </c>
       <c r="I37" t="n">
-        <v>830860334.4408861</v>
+        <v>1009940366.719174</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -12874,22 +12874,22 @@
         <v>115</v>
       </c>
       <c r="D39" t="n">
-        <v>13454952.2646872</v>
+        <v>13637554.76627573</v>
       </c>
       <c r="E39" t="n">
-        <v>1242.93531280756</v>
+        <v>1222.833724271506</v>
       </c>
       <c r="F39" t="n">
         <v>62962.49999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>23352245.3123735</v>
+        <v>23644904.1995613</v>
       </c>
       <c r="H39" t="n">
-        <v>894524.8134287884</v>
+        <v>898391.6519352385</v>
       </c>
       <c r="I39" t="n">
-        <v>2589541528.557497</v>
+        <v>2624684892.241775</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -12932,22 +12932,22 @@
         <v>117</v>
       </c>
       <c r="D41" t="n">
-        <v>3613599.417335943</v>
+        <v>3796201.91892448</v>
       </c>
       <c r="E41" t="n">
-        <v>1021.382664055564</v>
+        <v>1001.281075518578</v>
       </c>
       <c r="F41" t="n">
         <v>64057.49999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>7711125.202213619</v>
+        <v>8008873.809178599</v>
       </c>
       <c r="H41" t="n">
-        <v>605966.0728522271</v>
+        <v>614948.3764070217</v>
       </c>
       <c r="I41" t="n">
-        <v>707575219.8213443</v>
+        <v>743329772.4392619</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -12961,22 +12961,22 @@
         <v>116</v>
       </c>
       <c r="D42" t="n">
-        <v>4712313.719774811</v>
+        <v>4868995.526546047</v>
       </c>
       <c r="E42" t="n">
-        <v>355.0802251896821</v>
+        <v>719.6734539531171</v>
       </c>
       <c r="F42" t="n">
         <v>63509.99999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>9421409.833483214</v>
+        <v>9674737.861889558</v>
       </c>
       <c r="H42" t="n">
-        <v>650668.734373853</v>
+        <v>657152.9015352912</v>
       </c>
       <c r="I42" t="n">
-        <v>914818034.0497578</v>
+        <v>945238429.3408543</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -12990,22 +12990,22 @@
         <v>172</v>
       </c>
       <c r="D43" t="n">
-        <v>1476533.783713239</v>
+        <v>1651243.219506091</v>
       </c>
       <c r="E43" t="n">
-        <v>723.8162867613137</v>
+        <v>935.9804939094465</v>
       </c>
       <c r="F43" t="n">
         <v>94170</v>
       </c>
       <c r="G43" t="n">
-        <v>6213199.817995473</v>
+        <v>6632021.23344882</v>
       </c>
       <c r="H43" t="n">
-        <v>687539.4394598515</v>
+        <v>709536.9661454367</v>
       </c>
       <c r="I43" t="n">
-        <v>425033145.7978897</v>
+        <v>475326487.1806713</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -13019,22 +13019,22 @@
         <v>172</v>
       </c>
       <c r="D44" t="n">
-        <v>2851599.435490677</v>
+        <v>3463377.099440613</v>
       </c>
       <c r="E44" t="n">
-        <v>771.7645093236351</v>
+        <v>581.3005593873095</v>
       </c>
       <c r="F44" t="n">
         <v>94170</v>
       </c>
       <c r="G44" t="n">
-        <v>9509387.867328428</v>
+        <v>10975864.43219111</v>
       </c>
       <c r="H44" t="n">
-        <v>830548.426913102</v>
+        <v>879633.1676641933</v>
       </c>
       <c r="I44" t="n">
-        <v>820849368.918918</v>
+        <v>996948306.9988958</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -13106,22 +13106,22 @@
         <v>64</v>
       </c>
       <c r="D47" t="n">
-        <v>1177878.979155538</v>
+        <v>1395458.083157563</v>
       </c>
       <c r="E47" t="n">
-        <v>607.4208444624674</v>
+        <v>84.3168424370233</v>
       </c>
       <c r="F47" t="n">
         <v>35040</v>
       </c>
       <c r="G47" t="n">
-        <v>2045498.995042586</v>
+        <v>2239546.329762738</v>
       </c>
       <c r="H47" t="n">
-        <v>240246.665576166</v>
+        <v>251815.598406227</v>
       </c>
       <c r="I47" t="n">
-        <v>126163034.8242606</v>
+        <v>149464825.251896</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -13135,22 +13135,22 @@
         <v>101</v>
       </c>
       <c r="D48" t="n">
-        <v>2858396.627810193</v>
+        <v>3329880.839485146</v>
       </c>
       <c r="E48" t="n">
-        <v>358.5721898060292</v>
+        <v>13.56051485333592</v>
       </c>
       <c r="F48" t="n">
         <v>55297.5</v>
       </c>
       <c r="G48" t="n">
-        <v>5593541.557408815</v>
+        <v>6257182.308685703</v>
       </c>
       <c r="H48" t="n">
-        <v>488045.8256199004</v>
+        <v>510534.8807773059</v>
       </c>
       <c r="I48" t="n">
-        <v>483156042.3902755</v>
+        <v>562848029.5427616</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -13222,22 +13222,22 @@
         <v>56</v>
       </c>
       <c r="D51" t="n">
-        <v>3826203.665847545</v>
+        <v>5670995.646524156</v>
       </c>
       <c r="E51" t="n">
-        <v>5873645.934152454</v>
+        <v>5969589.953475845</v>
       </c>
       <c r="F51" t="n">
         <v>30660</v>
       </c>
       <c r="G51" t="n">
-        <v>4071217.157456907</v>
+        <v>5514497.094806703</v>
       </c>
       <c r="H51" t="n">
-        <v>301225.8528887465</v>
+        <v>337269.6975149637</v>
       </c>
       <c r="I51" t="n">
-        <v>384350727.4823807</v>
+        <v>557664144.4228246</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -13280,22 +13280,22 @@
         <v>110</v>
       </c>
       <c r="D53" t="n">
-        <v>3612850.415095141</v>
+        <v>3854096.374748113</v>
       </c>
       <c r="E53" t="n">
-        <v>493.5849048597738</v>
+        <v>562.8252518877853</v>
       </c>
       <c r="F53" t="n">
         <v>60225.00000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>7248589.717924383</v>
+        <v>7618433.190441678</v>
       </c>
       <c r="H53" t="n">
-        <v>569675.3359391465</v>
+        <v>580778.7418092256</v>
       </c>
       <c r="I53" t="n">
-        <v>665099227.6012188</v>
+        <v>709511149.568895</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -13367,22 +13367,22 @@
         <v>123</v>
       </c>
       <c r="D56" t="n">
-        <v>4137453.564076729</v>
+        <v>4294135.370847966</v>
       </c>
       <c r="E56" t="n">
-        <v>655.2359232725576</v>
+        <v>1019.829152035993</v>
       </c>
       <c r="F56" t="n">
         <v>67342.5</v>
       </c>
       <c r="G56" t="n">
-        <v>9004535.152434962</v>
+        <v>9273150.217038244</v>
       </c>
       <c r="H56" t="n">
-        <v>663379.8626102936</v>
+        <v>670840.4196428235</v>
       </c>
       <c r="I56" t="n">
-        <v>851691795.751341</v>
+        <v>883947904.5513829</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -13396,22 +13396,22 @@
         <v>150</v>
       </c>
       <c r="D57" t="n">
-        <v>6578141.696270506</v>
+        <v>6900503.323796358</v>
       </c>
       <c r="E57" t="n">
-        <v>1208.703729495057</v>
+        <v>600.6762036429718</v>
       </c>
       <c r="F57" t="n">
         <v>82125</v>
       </c>
       <c r="G57" t="n">
-        <v>16083458.73582672</v>
+        <v>16757296.97484681</v>
       </c>
       <c r="H57" t="n">
-        <v>931724.2042682527</v>
+        <v>945599.1939152621</v>
       </c>
       <c r="I57" t="n">
-        <v>1651350334.464728</v>
+        <v>1732266866.765557</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -13454,22 +13454,22 @@
         <v>109</v>
       </c>
       <c r="D59" t="n">
-        <v>2270510.522550711</v>
+        <v>4255064.378878362</v>
       </c>
       <c r="E59" t="n">
-        <v>916.677449288778</v>
+        <v>510.0211216378957</v>
       </c>
       <c r="F59" t="n">
         <v>59677.50000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>5143577.224750279</v>
+        <v>8158280.782132942</v>
       </c>
       <c r="H59" t="n">
-        <v>492523.4150525898</v>
+        <v>592849.7535314928</v>
       </c>
       <c r="I59" t="n">
-        <v>414189632.0520915</v>
+        <v>776204346.6416353</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -13483,22 +13483,22 @@
         <v>102</v>
       </c>
       <c r="D60" t="n">
-        <v>5131988.428726745</v>
+        <v>5469616.870726015</v>
       </c>
       <c r="E60" t="n">
-        <v>747.5712732570246</v>
+        <v>194.3292739870958</v>
       </c>
       <c r="F60" t="n">
         <v>55845</v>
       </c>
       <c r="G60" t="n">
-        <v>8880954.283220027</v>
+        <v>9360870.341794511</v>
       </c>
       <c r="H60" t="n">
-        <v>587152.9137210759</v>
+        <v>598670.0390797707</v>
       </c>
       <c r="I60" t="n">
-        <v>876051831.4742517</v>
+        <v>933681602.2509902</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -13512,22 +13512,22 @@
         <v>82</v>
       </c>
       <c r="D61" t="n">
-        <v>3979824.060526871</v>
+        <v>4664405.981856562</v>
       </c>
       <c r="E61" t="n">
-        <v>1238.339473130647</v>
+        <v>1021.218143438455</v>
       </c>
       <c r="F61" t="n">
         <v>44895</v>
       </c>
       <c r="G61" t="n">
-        <v>5822914.374752874</v>
+        <v>6605248.407636912</v>
       </c>
       <c r="H61" t="n">
-        <v>437127.8669534593</v>
+        <v>458535.6617457956</v>
       </c>
       <c r="I61" t="n">
-        <v>546166490.2032055</v>
+        <v>640111525.3409512</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -13558,22 +13558,22 @@
         <v>148</v>
       </c>
       <c r="D63" t="n">
-        <v>1949666.799053879</v>
+        <v>2162854.817776447</v>
       </c>
       <c r="E63" t="n">
-        <v>6.800946122035384</v>
+        <v>44.38222355395555</v>
       </c>
       <c r="F63" t="n">
         <v>81030</v>
       </c>
       <c r="G63" t="n">
-        <v>6322070.340054364</v>
+        <v>6761801.744346468</v>
       </c>
       <c r="H63" t="n">
-        <v>640070.6075095837</v>
+        <v>659431.6196700993</v>
       </c>
       <c r="I63" t="n">
-        <v>482906647.1290063</v>
+        <v>535710923.1683631</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -13645,22 +13645,22 @@
         <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>1738319.033175265</v>
+        <v>2025700.845759932</v>
       </c>
       <c r="E66" t="n">
-        <v>682.566824735608</v>
+        <v>580.7542400681414</v>
       </c>
       <c r="F66" t="n">
         <v>54750</v>
       </c>
       <c r="G66" t="n">
-        <v>3977164.562923956</v>
+        <v>4377672.8162932</v>
       </c>
       <c r="H66" t="n">
-        <v>418569.9295743069</v>
+        <v>437248.3882435195</v>
       </c>
       <c r="I66" t="n">
-        <v>290923274.3398637</v>
+        <v>339017515.8712273</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -13836,22 +13836,22 @@
         <v>240</v>
       </c>
       <c r="D73" t="n">
-        <v>3484992.76279058</v>
+        <v>3641674.569561816</v>
       </c>
       <c r="E73" t="n">
-        <v>671.2372094204184</v>
+        <v>1035.83043818397</v>
       </c>
       <c r="F73" t="n">
         <v>131400</v>
       </c>
       <c r="G73" t="n">
-        <v>15387473.90128839</v>
+        <v>15911600.85661186</v>
       </c>
       <c r="H73" t="n">
-        <v>1229668.063799517</v>
+        <v>1245878.458173225</v>
       </c>
       <c r="I73" t="n">
-        <v>1399774372.039822</v>
+        <v>1462713120.917953</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -13865,22 +13865,22 @@
         <v>94</v>
       </c>
       <c r="D74" t="n">
-        <v>3826203.665847545</v>
+        <v>5670995.646524156</v>
       </c>
       <c r="E74" t="n">
-        <v>365.9341524532065</v>
+        <v>549.953475844115</v>
       </c>
       <c r="F74" t="n">
         <v>51465</v>
       </c>
       <c r="G74" t="n">
-        <v>6473744.591923296</v>
+        <v>8890522.120013585</v>
       </c>
       <c r="H74" t="n">
-        <v>495224.2428167799</v>
+        <v>557849.2654380183</v>
       </c>
       <c r="I74" t="n">
-        <v>601920149.7025677</v>
+        <v>892134099.566884</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -13923,22 +13923,22 @@
         <v>301</v>
       </c>
       <c r="D76" t="n">
-        <v>1990890.190578352</v>
+        <v>2259543.832061166</v>
       </c>
       <c r="E76" t="n">
-        <v>917.809421648737</v>
+        <v>392.1679388345219</v>
       </c>
       <c r="F76" t="n">
         <v>164797.5</v>
       </c>
       <c r="G76" t="n">
-        <v>13030832.69272616</v>
+        <v>14157715.75160287</v>
       </c>
       <c r="H76" t="n">
-        <v>1309595.798639372</v>
+        <v>1358180.818814308</v>
       </c>
       <c r="I76" t="n">
-        <v>1002915106.509372</v>
+        <v>1138234630.028037</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -14010,22 +14010,22 @@
         <v>175</v>
       </c>
       <c r="D79" t="n">
-        <v>2104688.136760756</v>
+        <v>2255153.923744892</v>
       </c>
       <c r="E79" t="n">
-        <v>755.0632392445114</v>
+        <v>951.6762551080901</v>
       </c>
       <c r="F79" t="n">
         <v>95812.5</v>
       </c>
       <c r="G79" t="n">
-        <v>7853590.956541131</v>
+        <v>8220587.317440868</v>
       </c>
       <c r="H79" t="n">
-        <v>773640.3086833062</v>
+        <v>789198.918662558</v>
       </c>
       <c r="I79" t="n">
-        <v>616416271.5123776</v>
+        <v>660486303.7121158</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -14126,22 +14126,22 @@
         <v>95</v>
       </c>
       <c r="D83" t="n">
-        <v>2589513.391426134</v>
+        <v>3201291.055376071</v>
       </c>
       <c r="E83" t="n">
-        <v>1113.808573866379</v>
+        <v>923.3446239300538</v>
       </c>
       <c r="F83" t="n">
         <v>52012.5</v>
       </c>
       <c r="G83" t="n">
-        <v>4905301.439643654</v>
+        <v>5715273.96093409</v>
       </c>
       <c r="H83" t="n">
-        <v>445971.6871336831</v>
+        <v>474639.845725153</v>
       </c>
       <c r="I83" t="n">
-        <v>411710088.9625558</v>
+        <v>508974037.3206831</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -14213,22 +14213,22 @@
         <v>82.59999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>3910492.859748871</v>
+        <v>5244188.144234708</v>
       </c>
       <c r="E86" t="n">
-        <v>345.5402511302382</v>
+        <v>906.2557652923279</v>
       </c>
       <c r="F86" t="n">
         <v>45223.5</v>
       </c>
       <c r="G86" t="n">
-        <v>5785660.973201026</v>
+        <v>7321001.09383994</v>
       </c>
       <c r="H86" t="n">
-        <v>438012.3135979191</v>
+        <v>478620.8712809511</v>
       </c>
       <c r="I86" t="n">
-        <v>540572989.1529095</v>
+        <v>724941271.13866</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -14271,22 +14271,22 @@
         <v>97.7</v>
       </c>
       <c r="D88" t="n">
-        <v>1495945.523371612</v>
+        <v>1783327.33595628</v>
       </c>
       <c r="E88" t="n">
-        <v>464.0766283881385</v>
+        <v>362.2640437204391</v>
       </c>
       <c r="F88" t="n">
         <v>53490.75</v>
       </c>
       <c r="G88" t="n">
-        <v>3555656.731717675</v>
+        <v>3946953.295259424</v>
       </c>
       <c r="H88" t="n">
-        <v>391971.3256178125</v>
+        <v>411922.1085099364</v>
       </c>
       <c r="I88" t="n">
-        <v>244600673.367577</v>
+        <v>291588747.3437193</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -14300,22 +14300,22 @@
         <v>134</v>
       </c>
       <c r="D89" t="n">
-        <v>1547157.970916226</v>
+        <v>1810155.068055429</v>
       </c>
       <c r="E89" t="n">
-        <v>323.6290837745182</v>
+        <v>347.3319445713423</v>
       </c>
       <c r="F89" t="n">
         <v>73365</v>
       </c>
       <c r="G89" t="n">
-        <v>4972372.918292388</v>
+        <v>5463526.116209673</v>
       </c>
       <c r="H89" t="n">
-        <v>542716.3162267217</v>
+        <v>567374.7974857711</v>
       </c>
       <c r="I89" t="n">
-        <v>346964234.8306161</v>
+        <v>405943395.2619439</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -14358,22 +14358,22 @@
         <v>100</v>
       </c>
       <c r="D91" t="n">
-        <v>3659164.735001117</v>
+        <v>3764054.735001117</v>
       </c>
       <c r="E91" t="n">
-        <v>144.0649988818914</v>
+        <v>1228.464998881798</v>
       </c>
       <c r="F91" t="n">
         <v>54750</v>
       </c>
       <c r="G91" t="n">
-        <v>6654151.014748447</v>
+        <v>6800403.599340903</v>
       </c>
       <c r="H91" t="n">
-        <v>519856.526180821</v>
+        <v>524263.1788604427</v>
       </c>
       <c r="I91" t="n">
-        <v>612383898.2025591</v>
+        <v>629946350.5835114</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -14387,22 +14387,22 @@
         <v>123</v>
       </c>
       <c r="D92" t="n">
-        <v>1067015.432280906</v>
+        <v>1769946.033502277</v>
       </c>
       <c r="E92" t="n">
-        <v>389.3677190938033</v>
+        <v>975.5664977234555</v>
       </c>
       <c r="F92" t="n">
         <v>67342.5</v>
       </c>
       <c r="G92" t="n">
-        <v>3741132.278207617</v>
+        <v>4946151.297729736</v>
       </c>
       <c r="H92" t="n">
-        <v>449356.733378246</v>
+        <v>517485.1133768318</v>
       </c>
       <c r="I92" t="n">
-        <v>219646470.8911178</v>
+        <v>364348796.7164824</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -14474,22 +14474,22 @@
         <v>60</v>
       </c>
       <c r="D95" t="n">
-        <v>2270510.522550711</v>
+        <v>4255064.378878362</v>
       </c>
       <c r="E95" t="n">
-        <v>916.677449288778</v>
+        <v>510.0211216378957</v>
       </c>
       <c r="F95" t="n">
         <v>32850</v>
       </c>
       <c r="G95" t="n">
-        <v>2831326.912706575</v>
+        <v>4490796.760807124</v>
       </c>
       <c r="H95" t="n">
-        <v>271113.8064509669</v>
+        <v>326339.3138705465</v>
       </c>
       <c r="I95" t="n">
-        <v>227994292.8727109</v>
+        <v>427268447.6926433</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -14503,22 +14503,22 @@
         <v>225</v>
       </c>
       <c r="D96" t="n">
-        <v>2684591.579029841</v>
+        <v>3280440.742979778</v>
       </c>
       <c r="E96" t="n">
-        <v>518.8209701592568</v>
+        <v>935.257020222838</v>
       </c>
       <c r="F96" t="n">
         <v>123187.5</v>
       </c>
       <c r="G96" t="n">
-        <v>11915873.63980163</v>
+        <v>13784370.82496602</v>
       </c>
       <c r="H96" t="n">
-        <v>1067428.444010219</v>
+        <v>1132303.496926079</v>
       </c>
       <c r="I96" t="n">
-        <v>1010894120.330354</v>
+        <v>1235268909.533813</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -14619,22 +14619,22 @@
         <v>161</v>
       </c>
       <c r="D100" t="n">
-        <v>1606194.912801307</v>
+        <v>1745717.48479656</v>
       </c>
       <c r="E100" t="n">
-        <v>19.48719869321212</v>
+        <v>944.9152034400031</v>
       </c>
       <c r="F100" t="n">
         <v>88147.5</v>
       </c>
       <c r="G100" t="n">
-        <v>6106704.449660809</v>
+        <v>6419863.183611344</v>
       </c>
       <c r="H100" t="n">
-        <v>658985.6671987552</v>
+        <v>674711.8160455213</v>
       </c>
       <c r="I100" t="n">
-        <v>432778193.4378022</v>
+        <v>470383240.6785832</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -14648,22 +14648,22 @@
         <v>69.5</v>
       </c>
       <c r="D101" t="n">
-        <v>4381877.874768318</v>
+        <v>5364853.323947283</v>
       </c>
       <c r="E101" t="n">
-        <v>99.72523168195039</v>
+        <v>260.2760527161881</v>
       </c>
       <c r="F101" t="n">
         <v>38051.25</v>
       </c>
       <c r="G101" t="n">
-        <v>5324652.45879926</v>
+        <v>6276769.166624346</v>
       </c>
       <c r="H101" t="n">
-        <v>381368.6091489064</v>
+        <v>405516.1141954274</v>
       </c>
       <c r="I101" t="n">
-        <v>509667026.7585398</v>
+        <v>624000078.6419173</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -14677,22 +14677,22 @@
         <v>141</v>
       </c>
       <c r="D102" t="n">
-        <v>1715734.958333104</v>
+        <v>2053363.400332374</v>
       </c>
       <c r="E102" t="n">
-        <v>284.2416668958031</v>
+        <v>1007.799667625455</v>
       </c>
       <c r="F102" t="n">
         <v>77197.5</v>
       </c>
       <c r="G102" t="n">
-        <v>5563386.065603881</v>
+        <v>6226916.85945565</v>
       </c>
       <c r="H102" t="n">
-        <v>587996.5242958365</v>
+        <v>618926.799383993</v>
       </c>
       <c r="I102" t="n">
-        <v>404868213.1279246</v>
+        <v>484546996.2604749</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -14822,22 +14822,22 @@
         <v>142</v>
       </c>
       <c r="D107" t="n">
-        <v>10710607.0294158</v>
+        <v>13458568.4839868</v>
       </c>
       <c r="E107" t="n">
-        <v>468.1705842050724</v>
+        <v>180.3160132053308</v>
       </c>
       <c r="F107" t="n">
         <v>77745</v>
       </c>
       <c r="G107" t="n">
-        <v>23403791.13407529</v>
+        <v>28842004.50063584</v>
       </c>
       <c r="H107" t="n">
-        <v>1027213.68117272</v>
+        <v>1104637.332090881</v>
       </c>
       <c r="I107" t="n">
-        <v>2545331306.61576</v>
+        <v>3198368403.729772</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -14851,22 +14851,22 @@
         <v>74</v>
       </c>
       <c r="D108" t="n">
-        <v>12524739.02506587</v>
+        <v>15692324.66203691</v>
       </c>
       <c r="E108" t="n">
-        <v>668.9749341383576</v>
+        <v>824.1379630952142</v>
       </c>
       <c r="F108" t="n">
         <v>40515</v>
       </c>
       <c r="G108" t="n">
-        <v>14067292.12593824</v>
+        <v>17334076.51371481</v>
       </c>
       <c r="H108" t="n">
-        <v>562586.9141176669</v>
+        <v>604743.8094651072</v>
       </c>
       <c r="I108" t="n">
-        <v>1551109621.101823</v>
+        <v>1943394963.67569</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -14938,22 +14938,22 @@
         <v>60</v>
       </c>
       <c r="D111" t="n">
-        <v>2439066.35527127</v>
+        <v>3453309.835807942</v>
       </c>
       <c r="E111" t="n">
-        <v>898.4447287297808</v>
+        <v>1536424.564192058</v>
       </c>
       <c r="F111" t="n">
         <v>32850</v>
       </c>
       <c r="G111" t="n">
-        <v>2972272.741716266</v>
+        <v>3880474.318981996</v>
       </c>
       <c r="H111" t="n">
-        <v>276800.1177975326</v>
+        <v>308467.3314336735</v>
       </c>
       <c r="I111" t="n">
-        <v>244919494.0045359</v>
+        <v>353979084.2844744</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -14967,22 +14967,22 @@
         <v>221</v>
       </c>
       <c r="D112" t="n">
-        <v>4412400.784974163</v>
+        <v>4569082.5917454</v>
       </c>
       <c r="E112" t="n">
-        <v>220.0150258364156</v>
+        <v>584.6082546003163</v>
       </c>
       <c r="F112" t="n">
         <v>120997.5</v>
       </c>
       <c r="G112" t="n">
-        <v>17025656.78933075</v>
+        <v>17508290.36069112</v>
       </c>
       <c r="H112" t="n">
-        <v>1215239.367963993</v>
+        <v>1228113.662147442</v>
       </c>
       <c r="I112" t="n">
-        <v>1631958991.026487</v>
+        <v>1689915088.951765</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -15083,22 +15083,22 @@
         <v>166</v>
       </c>
       <c r="D116" t="n">
-        <v>3592327.227103019</v>
+        <v>3749009.033874256</v>
       </c>
       <c r="E116" t="n">
-        <v>587.9728969815187</v>
+        <v>952.5661257449538</v>
       </c>
       <c r="F116" t="n">
         <v>90885</v>
       </c>
       <c r="G116" t="n">
-        <v>10891310.89227324</v>
+        <v>11253832.03637198</v>
       </c>
       <c r="H116" t="n">
-        <v>858234.0793127471</v>
+        <v>869235.2827155318</v>
       </c>
       <c r="I116" t="n">
-        <v>997994862.3771377</v>
+        <v>1041527497.017845</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -15141,22 +15141,22 @@
         <v>60</v>
       </c>
       <c r="D118" t="n">
-        <v>9029825.997492969</v>
+        <v>9517470.941080775</v>
       </c>
       <c r="E118" t="n">
-        <v>980.4025070322677</v>
+        <v>1073.058919224888</v>
       </c>
       <c r="F118" t="n">
         <v>32850</v>
       </c>
       <c r="G118" t="n">
-        <v>8483475.230185611</v>
+        <v>8891248.00696061</v>
       </c>
       <c r="H118" t="n">
-        <v>411303.7153035816</v>
+        <v>418157.2059240454</v>
       </c>
       <c r="I118" t="n">
-        <v>906721345.4743271</v>
+        <v>955687932.9320171</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -15257,22 +15257,22 @@
         <v>93</v>
       </c>
       <c r="D122" t="n">
-        <v>2593224.494333939</v>
+        <v>3529923.283733908</v>
       </c>
       <c r="E122" t="n">
-        <v>1233.10566606163</v>
+        <v>428.716266091913</v>
       </c>
       <c r="F122" t="n">
         <v>50917.5</v>
       </c>
       <c r="G122" t="n">
-        <v>4806849.174699961</v>
+        <v>6020866.387861976</v>
       </c>
       <c r="H122" t="n">
-        <v>436765.5259506846</v>
+        <v>478315.2047812578</v>
       </c>
       <c r="I122" t="n">
-        <v>403620976.7665421</v>
+        <v>549403832.8796662</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -15402,22 +15402,22 @@
         <v>195</v>
       </c>
       <c r="D127" t="n">
-        <v>2871658.34747996</v>
+        <v>2976548.34747996</v>
       </c>
       <c r="E127" t="n">
-        <v>1141.652520040981</v>
+        <v>949.2525200406089</v>
       </c>
       <c r="F127" t="n">
         <v>106762.5</v>
       </c>
       <c r="G127" t="n">
-        <v>10835552.26466368</v>
+        <v>11120582.4169673</v>
       </c>
       <c r="H127" t="n">
-        <v>943551.9850465711</v>
+        <v>953557.4999340132</v>
       </c>
       <c r="I127" t="n">
-        <v>937165864.5196592</v>
+        <v>971393146.6625161</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -15460,10 +15460,10 @@
         <v>84.8</v>
       </c>
       <c r="D129" t="n">
-        <v>614070.5896622862</v>
+        <v>653683.0741781046</v>
       </c>
       <c r="E129" t="n">
-        <v>70.21033771359362</v>
+        <v>38.52582189533859</v>
       </c>
       <c r="F129" t="n">
         <v>46428</v>
@@ -15472,10 +15472,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>267228.8198264815</v>
+        <v>271643.2426545259</v>
       </c>
       <c r="I129" t="n">
-        <v>87148010.05298203</v>
+        <v>92769516.05357902</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -15489,22 +15489,22 @@
         <v>166</v>
       </c>
       <c r="D130" t="n">
-        <v>4579427.780027619</v>
+        <v>6547452.366325166</v>
       </c>
       <c r="E130" t="n">
-        <v>453.8199723800644</v>
+        <v>1254.833674833179</v>
       </c>
       <c r="F130" t="n">
         <v>90885</v>
       </c>
       <c r="G130" t="n">
-        <v>13174942.85005353</v>
+        <v>17728033.22827057</v>
       </c>
       <c r="H130" t="n">
-        <v>923105.0655172467</v>
+        <v>1029621.500247131</v>
       </c>
       <c r="I130" t="n">
-        <v>1272220289.749218</v>
+        <v>1818969143.292107</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -15608,7 +15608,7 @@
         <v>552741.2932957916</v>
       </c>
       <c r="E134" t="n">
-        <v>113.1067042084469</v>
+        <v>260580.3067042085</v>
       </c>
       <c r="F134" t="n">
         <v>32850</v>
@@ -15617,10 +15617,10 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>183970.5866305279</v>
+        <v>185013.9681384852</v>
       </c>
       <c r="I134" t="n">
-        <v>55503238.07259719</v>
+        <v>56727238.07259719</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -15634,22 +15634,22 @@
         <v>145</v>
       </c>
       <c r="D135" t="n">
-        <v>3355820.937063534</v>
+        <v>3710083.779062804</v>
       </c>
       <c r="E135" t="n">
-        <v>886.2629364669556</v>
+        <v>297.0209371966776</v>
       </c>
       <c r="F135" t="n">
         <v>79387.5</v>
       </c>
       <c r="G135" t="n">
-        <v>9035586.285103638</v>
+        <v>9751431.602957129</v>
       </c>
       <c r="H135" t="n">
-        <v>734637.5878039515</v>
+        <v>756907.2046770434</v>
       </c>
       <c r="I135" t="n">
-        <v>814353842.942196</v>
+        <v>900314712.2284559</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -15750,22 +15750,22 @@
         <v>90</v>
       </c>
       <c r="D139" t="n">
-        <v>6425548.219959726</v>
+        <v>7649769.628791664</v>
       </c>
       <c r="E139" t="n">
-        <v>586.1800402742811</v>
+        <v>815.9712083367631</v>
       </c>
       <c r="F139" t="n">
         <v>49275</v>
       </c>
       <c r="G139" t="n">
-        <v>9458640.491277315</v>
+        <v>10994196.58389524</v>
       </c>
       <c r="H139" t="n">
-        <v>555001.8939934639</v>
+        <v>585797.9979394793</v>
       </c>
       <c r="I139" t="n">
-        <v>967822137.2942178</v>
+        <v>1152216353.847946</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -57736,7 +57736,7 @@
         <v>3694</v>
       </c>
       <c r="B2" t="n">
-        <v>62403412627.93986</v>
+        <v>66829318913.71789</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -57744,7 +57744,7 @@
         <v>3695</v>
       </c>
       <c r="B3" t="n">
-        <v>547.5845368465751</v>
+        <v>586.421480878367</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -57776,7 +57776,7 @@
         <v>3697</v>
       </c>
       <c r="B1" t="n">
-        <v>0.01926569142302823</v>
+        <v>0.01950855146384298</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -57784,7 +57784,7 @@
         <v>3698</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001419873451735778</v>
+        <v>0.001399395175839555</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -57792,7 +57792,7 @@
         <v>3699</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001689633266511324</v>
+        <v>0.001691518028276596</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -57800,7 +57800,7 @@
         <v>3700</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002566532291813419</v>
+        <v>0.002558331997732146</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -57808,7 +57808,7 @@
         <v>3701</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00497861581518938</v>
+        <v>0.00504971324035488</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -57816,7 +57816,7 @@
         <v>3702</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008611036597778328</v>
+        <v>0.0088095930216398</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -57824,7 +57824,7 @@
         <v>3703</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01773614780917399</v>
+        <v>0.01748488898927618</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -57832,7 +57832,7 @@
         <v>3704</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01941524641707055</v>
+        <v>0.01907933447798003</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -57840,7 +57840,7 @@
         <v>3705</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001813152402010476</v>
+        <v>0.0001693072731237646</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -57848,7 +57848,7 @@
         <v>3701</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001497783367695513</v>
+        <v>0.001425138215580092</v>
       </c>
     </row>
   </sheetData>
